--- a/website/public/modules/module4/course/StoreC_data.xlsx
+++ b/website/public/modules/module4/course/StoreC_data.xlsx
@@ -2691,9 +2691,7 @@
       <c r="C11" t="n">
         <v>1.49</v>
       </c>
-      <c r="D11" t="n">
-        <v>60.33</v>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
         <v>16.26</v>
       </c>
@@ -4080,7 +4078,9 @@
       <c r="F57" t="n">
         <v>309</v>
       </c>
-      <c r="G57" t="inlineStr"/>
+      <c r="G57" t="n">
+        <v>106</v>
+      </c>
       <c r="H57" t="n">
         <v>7.21</v>
       </c>
@@ -5218,7 +5218,9 @@
       <c r="F95" t="n">
         <v>188</v>
       </c>
-      <c r="G95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>483</v>
+      </c>
       <c r="H95" t="n">
         <v>14.91</v>
       </c>
@@ -5966,7 +5968,9 @@
       <c r="F120" t="n">
         <v>259</v>
       </c>
-      <c r="G120" t="inlineStr"/>
+      <c r="G120" t="n">
+        <v>602</v>
+      </c>
       <c r="H120" t="n">
         <v>9.98</v>
       </c>
@@ -6675,9 +6679,7 @@
       <c r="C144" t="n">
         <v>5.51</v>
       </c>
-      <c r="D144" t="n">
-        <v>66.54000000000001</v>
-      </c>
+      <c r="D144" t="inlineStr"/>
       <c r="E144" t="n">
         <v>51.79</v>
       </c>
@@ -7335,9 +7337,7 @@
       <c r="C166" t="n">
         <v>6.98</v>
       </c>
-      <c r="D166" t="n">
-        <v>54.01</v>
-      </c>
+      <c r="D166" t="inlineStr"/>
       <c r="E166" t="n">
         <v>42.25</v>
       </c>
